--- a/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,28 +478,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5808449282</v>
+        <v>5809739724</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-21 20:49:16</t>
+          <t>2021-11-22 00:00:24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>syyuansang</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
+          <t>感谢 =v= 非常享受</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -512,11 +512,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5808480445</v>
+        <v>5810523413</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-21 20:54:05</t>
+          <t>2021-11-22 06:27:57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>个人喜好zzz</t>
+          <t>也感谢你（￣▽￣）</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,65 +536,67 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5808449282</v>
+        <v>5809739724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5808495275</v>
+        <v>5809654552</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-21 20:56:19</t>
+          <t>2021-11-21 23:47:29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>矢島脳天気</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>应该说是，两条不同的故事线各选了一个代表</t>
+          <t>我去，这是什么！音乐好好听啊！</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5808449282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5807535904</v>
+        <v>5810224451</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-21 18:26:41</t>
+          <t>2021-11-22 01:54:27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>捷克痴汉协会</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
+          <t>是Sound Horizon的十五周年纪念祭live哦
+至于Sound Horizon，是由日本音乐家Revo主宰的音乐团体，自称“幻想乐团”。专注于以歌和诗描绘幻想的物语世界，以“物语音乐”为其独特的音乐类型。每张作品都有一套原创的世界观，讲述各自的故事，称之为“地平线”。每个地平线都有相对独立的设定和情节，但地平线之间又会有交集，它包含了一切，任何故事都可能发生，但凭想象。以音乐描绘这样的地平线之上的故事，即是Sound Horizon。
+本作为第7.5or8.5地平线『絵馬に願ひを！』，故事详情可以查看网站“白之预言书”</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -604,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5809654552</v>
       </c>
     </row>
     <row r="6">
@@ -614,28 +616,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5807439649</v>
+        <v>5809576178</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-21 18:13:36</t>
+          <t>2021-11-21 23:35:09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>成宮光義</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>传错版本 过会更正</t>
+          <t>非常感谢！！</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -644,34 +646,238 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>5808449282</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:49:16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>syyuansang</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5808480445</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:54:05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>个人喜好zzz</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5808449282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5808495275</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:56:19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>应该说是，两条不同的故事线各选了一个代表</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5808449282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5807535904</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:26:41</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>墨弦青风</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5810523553</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:28:25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5807535904</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5807439649</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:13:36</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>传错版本 过会更正</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>5808411615</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2021-11-21 20:42:51</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>已更</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>5807439649</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,28 +478,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5809739724</v>
+        <v>5815176136</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-22 00:00:24</t>
+          <t>2021-11-22 22:56:46</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>感谢 =v= 非常享受</t>
+          <t>嗷[夏诺雅_nya~]</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -508,376 +508,614 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5810523413</v>
+        <v>5814603233</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-22 06:27:57</t>
+          <t>2021-11-22 21:32:27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>どうぞ死ね</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>也感谢你（￣▽￣）</t>
+          <t>感谢up！[跪了][打call][脱单doge]</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5809739724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5809654552</v>
+        <v>5814737009</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-21 23:47:29</t>
+          <t>2021-11-22 21:52:46</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>矢島脳天気</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>我去，这是什么！音乐好好听啊！</t>
+          <t>感谢观看[脱单doge]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5814603233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>5812882006</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-11-22 16:47:01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大白梨°</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[doge]</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5813400259</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-11-22 18:24:17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[doge]</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5812882006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5811693147</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-11-22 12:23:46</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>逆袭的天空龙</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>非常感谢！</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5809739724</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-11-22 00:00:24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VirginMary</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>感谢 =v= 非常享受</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5810523413</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:27:57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>也感谢你（￣▽￣）</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5809739724</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5809654552</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:47:29</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>矢島脳天気</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>我去，这是什么！音乐好好听啊！</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5810224451</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2021-11-22 01:54:27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>捷克痴汉协会</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>是Sound Horizon的十五周年纪念祭live哦
 至于Sound Horizon，是由日本音乐家Revo主宰的音乐团体，自称“幻想乐团”。专注于以歌和诗描绘幻想的物语世界，以“物语音乐”为其独特的音乐类型。每张作品都有一套原创的世界观，讲述各自的故事，称之为“地平线”。每个地平线都有相对独立的设定和情节，但地平线之间又会有交集，它包含了一切，任何故事都可能发生，但凭想象。以音乐描绘这样的地平线之上的故事，即是Sound Horizon。
 本作为第7.5or8.5地平线『絵馬に願ひを！』，故事详情可以查看网站“白之预言书”</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>5809654552</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5809576178</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2021-11-21 23:35:09</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>成宮光義</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>非常感谢！！</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5808449282</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:49:16</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>syyuansang</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5808480445</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:54:05</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>个人喜好zzz</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5808449282</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5808495275</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021-11-21 20:56:19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>应该说是，两条不同的故事线各选了一个代表</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5808449282</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5807535904</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021-11-21 18:26:41</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>墨弦青风</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5810523553</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021-11-22 06:28:25</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ponster_</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>(=・ω・=)</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5807535904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5807439649</v>
+        <v>5813595672</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-11-21 18:13:36</t>
+          <t>2021-11-22 18:53:18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>矢島脳天気</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>传错版本 过会更正</t>
+          <t>回复 @捷克痴汉协会 :感谢 感谢</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5809654552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>5809576178</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:35:09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>成宮光義</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>非常感谢！！</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5808449282</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:49:16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>syyuansang</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5808480445</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:54:05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>个人喜好zzz</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5808449282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5808495275</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-11-21 20:56:19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>应该说是，两条不同的故事线各选了一个代表</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5808449282</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5807535904</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:26:41</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>墨弦青风</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5810523553</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-11-22 06:28:25</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>(=・ω・=)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5807535904</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5807439649</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:13:36</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>传错版本 过会更正</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>5808411615</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>2021-11-21 20:42:51</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>已更</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5807439649</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,21 +478,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5815176136</v>
+        <v>5815992237</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-22 22:56:46</t>
+          <t>2021-11-23 01:28:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>自律-Official</t>
+          <t>ljc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>嗷[夏诺雅_nya~]</t>
+          <t>谢谢UP！</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -512,28 +512,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5814603233</v>
+        <v>5815176136</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-22 21:32:27</t>
+          <t>2021-11-22 22:56:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>どうぞ死ね</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>感谢up！[跪了][打call][脱单doge]</t>
+          <t>嗷[夏诺雅_nya~]</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -542,88 +542,88 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5814737009</v>
+        <v>5814603233</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-22 21:52:46</t>
+          <t>2021-11-22 21:32:27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>どうぞ死ね</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>感谢观看[脱单doge]</t>
+          <t>感谢up！[跪了][打call][脱单doge]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5814603233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5812882006</v>
+        <v>5814737009</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-22 16:47:01</t>
+          <t>2021-11-22 21:52:46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大白梨°</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[doge]</t>
+          <t>感谢观看[脱单doge]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5814603233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5813400259</v>
+        <v>5812882006</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-22 18:24:17</t>
+          <t>2021-11-22 16:47:01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>大白梨°</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -635,34 +635,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5812882006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5811693147</v>
+        <v>5813400259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-22 12:23:46</t>
+          <t>2021-11-22 18:24:17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>逆袭的天空龙</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>非常感谢！</t>
+          <t>[doge]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5812882006</v>
       </c>
     </row>
     <row r="8">
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5809739724</v>
+        <v>5811693147</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-22 00:00:24</t>
+          <t>2021-11-22 12:23:46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>逆袭的天空龙</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>感谢 =v= 非常享受</t>
+          <t>非常感谢！</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -712,131 +712,131 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5810523413</v>
+        <v>5809739724</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-11-22 06:27:57</t>
+          <t>2021-11-22 00:00:24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>也感谢你（￣▽￣）</t>
+          <t>感谢 =v= 非常享受</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5809739724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5809654552</v>
+        <v>5810523413</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-11-21 23:47:29</t>
+          <t>2021-11-22 06:27:57</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>矢島脳天気</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>我去，这是什么！音乐好好听啊！</t>
+          <t>也感谢你（￣▽￣）</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5809739724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>5809654552</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:47:29</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>矢島脳天気</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>我去，这是什么！音乐好好听啊！</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>5810224451</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2021-11-22 01:54:27</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>捷克痴汉协会</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>是Sound Horizon的十五周年纪念祭live哦
 至于Sound Horizon，是由日本音乐家Revo主宰的音乐团体，自称“幻想乐团”。专注于以歌和诗描绘幻想的物语世界，以“物语音乐”为其独特的音乐类型。每张作品都有一套原创的世界观，讲述各自的故事，称之为“地平线”。每个地平线都有相对独立的设定和情节，但地平线之间又会有交集，它包含了一切，任何故事都可能发生，但凭想象。以音乐描绘这样的地平线之上的故事，即是Sound Horizon。
 本作为第7.5or8.5地平线『絵馬に願ひを！』，故事详情可以查看网站“白之预言书”</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5809654552</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5813595672</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021-11-22 18:53:18</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>矢島脳天気</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>回复 @捷克痴汉协会 :感谢 感谢</t>
-        </is>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -850,25 +850,25 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5809576178</v>
+        <v>5813595672</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-11-21 23:35:09</t>
+          <t>2021-11-22 18:53:18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>成宮光義</t>
+          <t>矢島脳天気</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>非常感谢！！</t>
+          <t>回复 @捷克痴汉协会 :感谢 感谢</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5809654552</v>
       </c>
     </row>
     <row r="14">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5808449282</v>
+        <v>5809576178</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-11-21 20:49:16</t>
+          <t>2021-11-21 23:35:09</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>syyuansang</t>
+          <t>成宮光義</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
+          <t>非常感谢！！</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,49 +918,49 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5808480445</v>
+        <v>5808449282</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-11-21 20:54:05</t>
+          <t>2021-11-21 20:49:16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>syyuansang</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>个人喜好zzz</t>
+          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>5808449282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5808495275</v>
+        <v>5808480445</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-11-21 20:56:19</t>
+          <t>2021-11-21 20:54:05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>应该说是，两条不同的故事线各选了一个代表</t>
+          <t>个人喜好zzz</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -986,83 +986,83 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5807535904</v>
+        <v>5808495275</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-21 18:26:41</t>
+          <t>2021-11-21 20:56:19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
+          <t>应该说是，两条不同的故事线各选了一个代表</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5808449282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5810523553</v>
+        <v>5807535904</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-22 06:28:25</t>
+          <t>2021-11-21 18:26:41</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>墨弦青风</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(=・ω・=)</t>
+          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>5807535904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5807439649</v>
+        <v>5810523553</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-21 18:13:36</t>
+          <t>2021-11-22 06:28:25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1072,50 +1072,84 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>传错版本 过会更正</t>
+          <t>(=・ω・=)</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5807535904</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>5807439649</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:13:36</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>传错版本 过会更正</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>5808411615</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>2021-11-21 20:42:51</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>已更</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>5807439649</v>
       </c>
     </row>

--- a/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
+++ b/视频文件【评论+弹幕】/BV1EU4y1u7HA_第一场/评论信息（已根据点赞数排序）.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,21 +478,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5815992237</v>
+        <v>5824329969</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-23 01:28:38</t>
+          <t>2021-11-24 16:00:40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ljc</t>
+          <t>露川MING</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>谢谢UP！</t>
+          <t>感谢up！！！！！！！</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -512,21 +512,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5815176136</v>
+        <v>5815992237</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-22 22:56:46</t>
+          <t>2021-11-23 01:28:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>自律-Official</t>
+          <t>ljc</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>嗷[夏诺雅_nya~]</t>
+          <t>谢谢UP！</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -546,28 +546,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5814603233</v>
+        <v>5815176136</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-22 21:32:27</t>
+          <t>2021-11-22 22:56:46</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>どうぞ死ね</t>
+          <t>自律-Official</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>感谢up！[跪了][打call][脱单doge]</t>
+          <t>嗷[夏诺雅_nya~]</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -576,88 +576,88 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5814737009</v>
+        <v>5814603233</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-22 21:52:46</t>
+          <t>2021-11-22 21:32:27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>どうぞ死ね</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>感谢观看[脱单doge]</t>
+          <t>感谢up！[跪了][打call][脱单doge]</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5814603233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5812882006</v>
+        <v>5814737009</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-11-22 16:47:01</t>
+          <t>2021-11-22 21:52:46</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大白梨°</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[doge]</t>
+          <t>感谢观看[脱单doge]</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5814603233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5813400259</v>
+        <v>5812882006</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-22 18:24:17</t>
+          <t>2021-11-22 16:47:01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>大白梨°</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -669,34 +669,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5812882006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5811693147</v>
+        <v>5813400259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-22 12:23:46</t>
+          <t>2021-11-22 18:24:17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>逆袭的天空龙</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>非常感谢！</t>
+          <t>[doge]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5812882006</v>
       </c>
     </row>
     <row r="9">
@@ -716,28 +716,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5809739724</v>
+        <v>5811693147</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-11-22 00:00:24</t>
+          <t>2021-11-22 12:23:46</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VirginMary</t>
+          <t>逆袭的天空龙</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>感谢 =v= 非常享受</t>
+          <t>非常感谢！</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -746,131 +746,131 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5810523413</v>
+        <v>5809739724</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-11-22 06:27:57</t>
+          <t>2021-11-22 00:00:24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>VirginMary</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>也感谢你（￣▽￣）</t>
+          <t>感谢 =v= 非常享受</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5809739724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5809654552</v>
+        <v>5810523413</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-11-21 23:47:29</t>
+          <t>2021-11-22 06:27:57</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>矢島脳天気</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>我去，这是什么！音乐好好听啊！</t>
+          <t>也感谢你（￣▽￣）</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5809739724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5809654552</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-11-21 23:47:29</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>矢島脳天気</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>我去，这是什么！音乐好好听啊！</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>5810224451</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2021-11-22 01:54:27</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>捷克痴汉协会</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>是Sound Horizon的十五周年纪念祭live哦
 至于Sound Horizon，是由日本音乐家Revo主宰的音乐团体，自称“幻想乐团”。专注于以歌和诗描绘幻想的物语世界，以“物语音乐”为其独特的音乐类型。每张作品都有一套原创的世界观，讲述各自的故事，称之为“地平线”。每个地平线都有相对独立的设定和情节，但地平线之间又会有交集，它包含了一切，任何故事都可能发生，但凭想象。以音乐描绘这样的地平线之上的故事，即是Sound Horizon。
 本作为第7.5or8.5地平线『絵馬に願ひを！』，故事详情可以查看网站“白之预言书”</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5809654552</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5813595672</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021-11-22 18:53:18</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>矢島脳天気</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>回复 @捷克痴汉协会 :感谢 感谢</t>
-        </is>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -884,25 +884,25 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5809576178</v>
+        <v>5813595672</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-11-21 23:35:09</t>
+          <t>2021-11-22 18:53:18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>成宮光義</t>
+          <t>矢島脳天気</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>非常感谢！！</t>
+          <t>回复 @捷克痴汉协会 :感谢 感谢</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5809654552</v>
       </c>
     </row>
     <row r="15">
@@ -922,28 +922,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5808449282</v>
+        <v>5809576178</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-11-21 20:49:16</t>
+          <t>2021-11-21 23:35:09</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>syyuansang</t>
+          <t>成宮光義</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
+          <t>非常感谢！！</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -952,49 +952,49 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5808480445</v>
+        <v>5808449282</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-11-21 20:54:05</t>
+          <t>2021-11-21 20:49:16</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>syyuansang</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>个人喜好zzz</t>
+          <t>不懂就问，为什么第一场直接就跳到第六场l[tv_doge]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>5808449282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5808495275</v>
+        <v>5808480445</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-21 20:56:19</t>
+          <t>2021-11-21 20:54:05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>应该说是，两条不同的故事线各选了一个代表</t>
+          <t>个人喜好zzz</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1020,83 +1020,83 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5807535904</v>
+        <v>5808495275</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-21 18:26:41</t>
+          <t>2021-11-21 20:56:19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>墨弦青风</t>
+          <t>Ponster_</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
+          <t>应该说是，两条不同的故事线各选了一个代表</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5808449282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5810523553</v>
+        <v>5807535904</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-22 06:28:25</t>
+          <t>2021-11-21 18:26:41</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ponster_</t>
+          <t>墨弦青风</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(=・ω・=)</t>
+          <t>up辛苦了，感谢[热词系列_爱了爱了]</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>5807535904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5807439649</v>
+        <v>5810523553</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-21 18:13:36</t>
+          <t>2021-11-22 06:28:25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1106,50 +1106,84 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>传错版本 过会更正</t>
+          <t>(=・ω・=)</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5807535904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>5807439649</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-11-21 18:13:36</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ponster_</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>传错版本 过会更正</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>5808411615</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>2021-11-21 20:42:51</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Ponster_</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>已更</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>5807439649</v>
       </c>
     </row>
